--- a/02- Base de donnée/02 - MCD/remplisage de BDD/Departement Region.xlsx
+++ b/02- Base de donnée/02 - MCD/remplisage de BDD/Departement Region.xlsx
@@ -1304,7 +1304,7 @@
         <v>12</v>
       </c>
       <c r="K2" t="str">
-        <f>K$1&amp;F2&amp;","""&amp;G2&amp;""","&amp;I2&amp;");"</f>
+        <f t="shared" ref="K2:K15" si="0">K$1&amp;F2&amp;","""&amp;G2&amp;""","&amp;I2&amp;");"</f>
         <v>INSERT INTO Region(`idRegion`,`nomRegion`,`nbDepartement`) VALUES (1,"Auvergne-Rhône-Alpes",12);</v>
       </c>
     </row>
@@ -1319,11 +1319,11 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" si="0">IF(ISNA(VLOOKUP(C3,G:H,2,FALSE)),"null",VLOOKUP(C3,G:H,2,FALSE))</f>
+        <f t="shared" ref="D3:D66" si="1">IF(ISNA(VLOOKUP(C3,G:H,2,FALSE)),"null",VLOOKUP(C3,G:H,2,FALSE))</f>
         <v>7</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E66" si="1">E$1&amp;"null,"""&amp;B3&amp;""","&amp;D3&amp;");"</f>
+        <f t="shared" ref="E3:E66" si="2">E$1&amp;"null,"""&amp;B3&amp;""","&amp;D3&amp;");"</f>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Aisne",7);</v>
       </c>
       <c r="F3">
@@ -1339,7 +1339,7 @@
         <v>8</v>
       </c>
       <c r="K3" t="str">
-        <f>K$1&amp;F3&amp;","""&amp;G3&amp;""","&amp;I3&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Region(`idRegion`,`nomRegion`,`nbDepartement`) VALUES (2,"Bourgogne-Franche-Comté",8);</v>
       </c>
     </row>
@@ -1354,11 +1354,11 @@
         <v>96</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Allier",1);</v>
       </c>
       <c r="F4">
@@ -1374,7 +1374,7 @@
         <v>4</v>
       </c>
       <c r="K4" t="str">
-        <f>K$1&amp;F4&amp;","""&amp;G4&amp;""","&amp;I4&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Region(`idRegion`,`nomRegion`,`nbDepartement`) VALUES (3,"Bretagne",4);</v>
       </c>
     </row>
@@ -1389,11 +1389,11 @@
         <v>98</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Alpes-de-Haute-Provence",13);</v>
       </c>
       <c r="F5">
@@ -1409,7 +1409,7 @@
         <v>6</v>
       </c>
       <c r="K5" t="str">
-        <f>K$1&amp;F5&amp;","""&amp;G5&amp;""","&amp;I5&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Region(`idRegion`,`nomRegion`,`nbDepartement`) VALUES (4,"Centre-Val de Loire",6);</v>
       </c>
     </row>
@@ -1424,11 +1424,11 @@
         <v>98</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Hautes-Alpes",13);</v>
       </c>
       <c r="F6">
@@ -1444,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="K6" t="str">
-        <f>K$1&amp;F6&amp;","""&amp;G6&amp;""","&amp;I6&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Region(`idRegion`,`nomRegion`,`nbDepartement`) VALUES (5,"Corse",2);</v>
       </c>
     </row>
@@ -1459,11 +1459,11 @@
         <v>98</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Alpes-Maritimes",13);</v>
       </c>
       <c r="F7">
@@ -1479,7 +1479,7 @@
         <v>10</v>
       </c>
       <c r="K7" t="str">
-        <f>K$1&amp;F7&amp;","""&amp;G7&amp;""","&amp;I7&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Region(`idRegion`,`nomRegion`,`nbDepartement`) VALUES (6,"Grand-Est",10);</v>
       </c>
     </row>
@@ -1494,11 +1494,11 @@
         <v>96</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Ardèche",1);</v>
       </c>
       <c r="F8">
@@ -1514,7 +1514,7 @@
         <v>5</v>
       </c>
       <c r="K8" t="str">
-        <f>K$1&amp;F8&amp;","""&amp;G8&amp;""","&amp;I8&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Region(`idRegion`,`nomRegion`,`nbDepartement`) VALUES (7,"Hauts-de-France",5);</v>
       </c>
     </row>
@@ -1529,11 +1529,11 @@
         <v>88</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Ardennes",6);</v>
       </c>
       <c r="F9">
@@ -1549,7 +1549,7 @@
         <v>8</v>
       </c>
       <c r="K9" t="str">
-        <f>K$1&amp;F9&amp;","""&amp;G9&amp;""","&amp;I9&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Region(`idRegion`,`nomRegion`,`nbDepartement`) VALUES (8,"Ile-de-France",8);</v>
       </c>
     </row>
@@ -1564,11 +1564,11 @@
         <v>93</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Ariège",11);</v>
       </c>
       <c r="F10">
@@ -1584,7 +1584,7 @@
         <v>5</v>
       </c>
       <c r="K10" t="str">
-        <f>K$1&amp;F10&amp;","""&amp;G10&amp;""","&amp;I10&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Region(`idRegion`,`nomRegion`,`nbDepartement`) VALUES (9,"Normandie",5);</v>
       </c>
     </row>
@@ -1599,11 +1599,11 @@
         <v>88</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Aube",6);</v>
       </c>
       <c r="F11">
@@ -1619,7 +1619,7 @@
         <v>12</v>
       </c>
       <c r="K11" t="str">
-        <f>K$1&amp;F11&amp;","""&amp;G11&amp;""","&amp;I11&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Region(`idRegion`,`nomRegion`,`nbDepartement`) VALUES (10,"Nouvelle-Aquitaine",12);</v>
       </c>
     </row>
@@ -1634,11 +1634,11 @@
         <v>93</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Aude",11);</v>
       </c>
       <c r="F12">
@@ -1654,7 +1654,7 @@
         <v>13</v>
       </c>
       <c r="K12" t="str">
-        <f>K$1&amp;F12&amp;","""&amp;G12&amp;""","&amp;I12&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Region(`idRegion`,`nomRegion`,`nbDepartement`) VALUES (11,"Occitanie",13);</v>
       </c>
     </row>
@@ -1669,11 +1669,11 @@
         <v>93</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Aveyron",11);</v>
       </c>
       <c r="F13">
@@ -1689,7 +1689,7 @@
         <v>5</v>
       </c>
       <c r="K13" t="str">
-        <f>K$1&amp;F13&amp;","""&amp;G13&amp;""","&amp;I13&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Region(`idRegion`,`nomRegion`,`nbDepartement`) VALUES (12,"Pays de la Loire",5);</v>
       </c>
     </row>
@@ -1704,11 +1704,11 @@
         <v>98</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Bouches-du-Rhône",13);</v>
       </c>
       <c r="F14">
@@ -1724,7 +1724,7 @@
         <v>6</v>
       </c>
       <c r="K14" t="str">
-        <f>K$1&amp;F14&amp;","""&amp;G14&amp;""","&amp;I14&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Region(`idRegion`,`nomRegion`,`nbDepartement`) VALUES (13,"Provence-Alpes-Côte d'Azur",6);</v>
       </c>
     </row>
@@ -1739,11 +1739,11 @@
         <v>91</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Calvados",9);</v>
       </c>
       <c r="F15">
@@ -1759,7 +1759,7 @@
         <v>12</v>
       </c>
       <c r="K15" t="str">
-        <f>K$1&amp;F15&amp;","""&amp;G15&amp;""","&amp;I15&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO Region(`idRegion`,`nomRegion`,`nbDepartement`) VALUES (14,"DOM-TOM",12);</v>
       </c>
     </row>
@@ -1774,11 +1774,11 @@
         <v>96</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Cantal",1);</v>
       </c>
     </row>
@@ -1793,11 +1793,11 @@
         <v>92</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Charente",10);</v>
       </c>
     </row>
@@ -1812,11 +1812,11 @@
         <v>92</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Charente-Maritime",10);</v>
       </c>
     </row>
@@ -1831,11 +1831,11 @@
         <v>86</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Cher",4);</v>
       </c>
     </row>
@@ -1850,11 +1850,11 @@
         <v>92</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Correze",10);</v>
       </c>
     </row>
@@ -1869,11 +1869,11 @@
         <v>97</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Côte-d'Or",2);</v>
       </c>
     </row>
@@ -1888,11 +1888,11 @@
         <v>85</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Côtes-d'Armor",3);</v>
       </c>
     </row>
@@ -1907,11 +1907,11 @@
         <v>92</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Creuse",10);</v>
       </c>
     </row>
@@ -1926,11 +1926,11 @@
         <v>92</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Dordogne",10);</v>
       </c>
     </row>
@@ -1945,11 +1945,11 @@
         <v>97</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Doubs",2);</v>
       </c>
     </row>
@@ -1964,11 +1964,11 @@
         <v>96</v>
       </c>
       <c r="D26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Drôme",1);</v>
       </c>
     </row>
@@ -1983,11 +1983,11 @@
         <v>91</v>
       </c>
       <c r="D27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Eure",9);</v>
       </c>
     </row>
@@ -2002,11 +2002,11 @@
         <v>86</v>
       </c>
       <c r="D28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Eure-et-Loir",4);</v>
       </c>
     </row>
@@ -2021,11 +2021,11 @@
         <v>85</v>
       </c>
       <c r="D29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Finistère",3);</v>
       </c>
     </row>
@@ -2040,11 +2040,11 @@
         <v>87</v>
       </c>
       <c r="D30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Corse-du-Sud",5);</v>
       </c>
     </row>
@@ -2059,11 +2059,11 @@
         <v>87</v>
       </c>
       <c r="D31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Haute-Corse ",5);</v>
       </c>
     </row>
@@ -2078,11 +2078,11 @@
         <v>93</v>
       </c>
       <c r="D32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Gard",11);</v>
       </c>
     </row>
@@ -2097,11 +2097,11 @@
         <v>93</v>
       </c>
       <c r="D33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Haute-Garonne",11);</v>
       </c>
     </row>
@@ -2116,11 +2116,11 @@
         <v>93</v>
       </c>
       <c r="D34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Gers",11);</v>
       </c>
     </row>
@@ -2135,11 +2135,11 @@
         <v>92</v>
       </c>
       <c r="D35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Gironde",10);</v>
       </c>
     </row>
@@ -2154,11 +2154,11 @@
         <v>93</v>
       </c>
       <c r="D36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Hérault",11);</v>
       </c>
     </row>
@@ -2173,11 +2173,11 @@
         <v>85</v>
       </c>
       <c r="D37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Ille-et-Vilaine",3);</v>
       </c>
     </row>
@@ -2192,11 +2192,11 @@
         <v>86</v>
       </c>
       <c r="D38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Indre",4);</v>
       </c>
     </row>
@@ -2211,11 +2211,11 @@
         <v>86</v>
       </c>
       <c r="D39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Indre-et-Loire",4);</v>
       </c>
     </row>
@@ -2230,11 +2230,11 @@
         <v>96</v>
       </c>
       <c r="D40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Isère",1);</v>
       </c>
     </row>
@@ -2249,11 +2249,11 @@
         <v>97</v>
       </c>
       <c r="D41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Jura",2);</v>
       </c>
     </row>
@@ -2268,11 +2268,11 @@
         <v>92</v>
       </c>
       <c r="D42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Landes",10);</v>
       </c>
     </row>
@@ -2287,11 +2287,11 @@
         <v>86</v>
       </c>
       <c r="D43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Loir-et-Cher",4);</v>
       </c>
     </row>
@@ -2306,11 +2306,11 @@
         <v>96</v>
       </c>
       <c r="D44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Loire",1);</v>
       </c>
     </row>
@@ -2325,11 +2325,11 @@
         <v>96</v>
       </c>
       <c r="D45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Haute-Loire",1);</v>
       </c>
     </row>
@@ -2344,11 +2344,11 @@
         <v>94</v>
       </c>
       <c r="D46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Loire-Atlantique",12);</v>
       </c>
     </row>
@@ -2363,11 +2363,11 @@
         <v>86</v>
       </c>
       <c r="D47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Loiret",4);</v>
       </c>
     </row>
@@ -2382,11 +2382,11 @@
         <v>93</v>
       </c>
       <c r="D48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Lot",11);</v>
       </c>
     </row>
@@ -2401,11 +2401,11 @@
         <v>92</v>
       </c>
       <c r="D49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Lot-et-Garonne",10);</v>
       </c>
     </row>
@@ -2420,11 +2420,11 @@
         <v>93</v>
       </c>
       <c r="D50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="E50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Lozère",11);</v>
       </c>
     </row>
@@ -2439,11 +2439,11 @@
         <v>94</v>
       </c>
       <c r="D51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Maine-et-Loire",12);</v>
       </c>
     </row>
@@ -2458,11 +2458,11 @@
         <v>91</v>
       </c>
       <c r="D52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Manche",9);</v>
       </c>
     </row>
@@ -2477,11 +2477,11 @@
         <v>88</v>
       </c>
       <c r="D53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Marne",6);</v>
       </c>
     </row>
@@ -2496,11 +2496,11 @@
         <v>88</v>
       </c>
       <c r="D54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="E54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Haute-Marne",6);</v>
       </c>
     </row>
@@ -2515,11 +2515,11 @@
         <v>94</v>
       </c>
       <c r="D55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="E55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Mayenne",12);</v>
       </c>
     </row>
@@ -2534,11 +2534,11 @@
         <v>88</v>
       </c>
       <c r="D56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Meurthe-et-Moselle",6);</v>
       </c>
     </row>
@@ -2553,11 +2553,11 @@
         <v>88</v>
       </c>
       <c r="D57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="E57" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Meuse",6);</v>
       </c>
     </row>
@@ -2572,11 +2572,11 @@
         <v>85</v>
       </c>
       <c r="D58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Morbihan",3);</v>
       </c>
     </row>
@@ -2591,11 +2591,11 @@
         <v>88</v>
       </c>
       <c r="D59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="E59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Moselle",6);</v>
       </c>
     </row>
@@ -2610,11 +2610,11 @@
         <v>97</v>
       </c>
       <c r="D60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E60" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Nièvre",2);</v>
       </c>
     </row>
@@ -2629,11 +2629,11 @@
         <v>89</v>
       </c>
       <c r="D61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="E61" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Nord",7);</v>
       </c>
     </row>
@@ -2648,11 +2648,11 @@
         <v>89</v>
       </c>
       <c r="D62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="E62" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Oise",7);</v>
       </c>
     </row>
@@ -2667,11 +2667,11 @@
         <v>91</v>
       </c>
       <c r="D63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="E63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Orne",9);</v>
       </c>
     </row>
@@ -2686,11 +2686,11 @@
         <v>89</v>
       </c>
       <c r="D64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="E64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Pas-de-Calais",7);</v>
       </c>
     </row>
@@ -2705,11 +2705,11 @@
         <v>96</v>
       </c>
       <c r="D65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Puy-de-Dôme",1);</v>
       </c>
     </row>
@@ -2724,11 +2724,11 @@
         <v>92</v>
       </c>
       <c r="D66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Pyrénées-Atlantiques",10);</v>
       </c>
     </row>
@@ -2743,11 +2743,11 @@
         <v>93</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D110" si="2">IF(ISNA(VLOOKUP(C67,G:H,2,FALSE)),"null",VLOOKUP(C67,G:H,2,FALSE))</f>
+        <f t="shared" ref="D67:D110" si="3">IF(ISNA(VLOOKUP(C67,G:H,2,FALSE)),"null",VLOOKUP(C67,G:H,2,FALSE))</f>
         <v>11</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" ref="E67:E110" si="3">E$1&amp;"null,"""&amp;B67&amp;""","&amp;D67&amp;");"</f>
+        <f t="shared" ref="E67:E110" si="4">E$1&amp;"null,"""&amp;B67&amp;""","&amp;D67&amp;");"</f>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Hautes-Pyrénées",11);</v>
       </c>
     </row>
@@ -2762,11 +2762,11 @@
         <v>93</v>
       </c>
       <c r="D68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Pyrénées-Orientales",11);</v>
       </c>
     </row>
@@ -2781,11 +2781,11 @@
         <v>88</v>
       </c>
       <c r="D69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="E69" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Bas-Rhin",6);</v>
       </c>
     </row>
@@ -2800,11 +2800,11 @@
         <v>88</v>
       </c>
       <c r="D70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="E70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Haut-Rhin",6);</v>
       </c>
     </row>
@@ -2819,11 +2819,11 @@
         <v>96</v>
       </c>
       <c r="D71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E71" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Rhône",1);</v>
       </c>
     </row>
@@ -2838,11 +2838,11 @@
         <v>97</v>
       </c>
       <c r="D72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E72" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Haute-Saône",2);</v>
       </c>
     </row>
@@ -2857,11 +2857,11 @@
         <v>97</v>
       </c>
       <c r="D73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E73" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Saône-et-Loire",2);</v>
       </c>
     </row>
@@ -2876,11 +2876,11 @@
         <v>94</v>
       </c>
       <c r="D74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="E74" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Sarthe",12);</v>
       </c>
     </row>
@@ -2895,11 +2895,11 @@
         <v>96</v>
       </c>
       <c r="D75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E75" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Savoie",1);</v>
       </c>
     </row>
@@ -2914,11 +2914,11 @@
         <v>96</v>
       </c>
       <c r="D76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E76" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Haute-Savoie",1);</v>
       </c>
     </row>
@@ -2933,11 +2933,11 @@
         <v>90</v>
       </c>
       <c r="D77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="E77" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Paris",8);</v>
       </c>
     </row>
@@ -2952,11 +2952,11 @@
         <v>91</v>
       </c>
       <c r="D78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="E78" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Seine-Maritime",9);</v>
       </c>
     </row>
@@ -2971,11 +2971,11 @@
         <v>90</v>
       </c>
       <c r="D79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="E79" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Seine-et-Marne",8);</v>
       </c>
     </row>
@@ -2990,11 +2990,11 @@
         <v>90</v>
       </c>
       <c r="D80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="E80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Yvelines",8);</v>
       </c>
     </row>
@@ -3009,11 +3009,11 @@
         <v>92</v>
       </c>
       <c r="D81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="E81" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Deux-Sèvres",10);</v>
       </c>
     </row>
@@ -3028,11 +3028,11 @@
         <v>89</v>
       </c>
       <c r="D82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="E82" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Somme",7);</v>
       </c>
     </row>
@@ -3047,11 +3047,11 @@
         <v>93</v>
       </c>
       <c r="D83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="E83" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Tarn",11);</v>
       </c>
     </row>
@@ -3066,11 +3066,11 @@
         <v>93</v>
       </c>
       <c r="D84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="E84" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Tarn-et-Garonne",11);</v>
       </c>
     </row>
@@ -3085,11 +3085,11 @@
         <v>98</v>
       </c>
       <c r="D85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="E85" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Var",13);</v>
       </c>
     </row>
@@ -3104,11 +3104,11 @@
         <v>98</v>
       </c>
       <c r="D86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="E86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Vaucluse",13);</v>
       </c>
     </row>
@@ -3123,11 +3123,11 @@
         <v>94</v>
       </c>
       <c r="D87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="E87" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Vendée",12);</v>
       </c>
     </row>
@@ -3142,11 +3142,11 @@
         <v>92</v>
       </c>
       <c r="D88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="E88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Vienne",10);</v>
       </c>
     </row>
@@ -3161,11 +3161,11 @@
         <v>92</v>
       </c>
       <c r="D89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="E89" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Haute-Vienne",10);</v>
       </c>
     </row>
@@ -3180,11 +3180,11 @@
         <v>88</v>
       </c>
       <c r="D90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="E90" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Vosges",6);</v>
       </c>
     </row>
@@ -3199,11 +3199,11 @@
         <v>97</v>
       </c>
       <c r="D91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E91" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Yonne",2);</v>
       </c>
     </row>
@@ -3218,11 +3218,11 @@
         <v>97</v>
       </c>
       <c r="D92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E92" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Territoire de Belfort",2);</v>
       </c>
     </row>
@@ -3237,11 +3237,11 @@
         <v>90</v>
       </c>
       <c r="D93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="E93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Essonne",8);</v>
       </c>
     </row>
@@ -3256,11 +3256,11 @@
         <v>90</v>
       </c>
       <c r="D94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="E94" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Hauts-de-Seine",8);</v>
       </c>
     </row>
@@ -3275,11 +3275,11 @@
         <v>90</v>
       </c>
       <c r="D95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="E95" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Seine-Saint-Denis",8);</v>
       </c>
     </row>
@@ -3294,11 +3294,11 @@
         <v>90</v>
       </c>
       <c r="D96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="E96" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Val-de-Marne",8);</v>
       </c>
     </row>
@@ -3313,11 +3313,11 @@
         <v>90</v>
       </c>
       <c r="D97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="E97" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Val-d'Oise",8);</v>
       </c>
     </row>
@@ -3332,11 +3332,11 @@
         <v>95</v>
       </c>
       <c r="D98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="E98" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Guadeloupe",14);</v>
       </c>
     </row>
@@ -3351,11 +3351,11 @@
         <v>95</v>
       </c>
       <c r="D99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="E99" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Martinique",14);</v>
       </c>
     </row>
@@ -3370,11 +3370,11 @@
         <v>95</v>
       </c>
       <c r="D100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="E100" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Guyane",14);</v>
       </c>
     </row>
@@ -3389,11 +3389,11 @@
         <v>95</v>
       </c>
       <c r="D101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="E101" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"La Réunion",14);</v>
       </c>
     </row>
@@ -3408,11 +3408,11 @@
         <v>95</v>
       </c>
       <c r="D102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="E102" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Saint-Pierre-et-Miquelon",14);</v>
       </c>
     </row>
@@ -3424,11 +3424,11 @@
         <v>81</v>
       </c>
       <c r="D103" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>null</v>
       </c>
       <c r="E103" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Mayotte",null);</v>
       </c>
     </row>
@@ -3443,11 +3443,11 @@
         <v>95</v>
       </c>
       <c r="D104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="E104" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Saint-Barthélemy	",14);</v>
       </c>
     </row>
@@ -3462,11 +3462,11 @@
         <v>95</v>
       </c>
       <c r="D105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="E105" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Saint-Martin	",14);</v>
       </c>
     </row>
@@ -3481,11 +3481,11 @@
         <v>95</v>
       </c>
       <c r="D106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="E106" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Terres australes et antarctiques françaises",14);</v>
       </c>
     </row>
@@ -3500,11 +3500,11 @@
         <v>95</v>
       </c>
       <c r="D107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="E107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Wallis-et-Futuna",14);</v>
       </c>
     </row>
@@ -3519,11 +3519,11 @@
         <v>95</v>
       </c>
       <c r="D108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="E108" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Polynésie française",14);</v>
       </c>
     </row>
@@ -3538,11 +3538,11 @@
         <v>95</v>
       </c>
       <c r="D109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="E109" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Nouvelle-Calédonie",14);</v>
       </c>
     </row>
@@ -3557,11 +3557,11 @@
         <v>95</v>
       </c>
       <c r="D110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="E110" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>INSERT INTO Departement(`idDepartement`,`nomDepartement`,`idRegion`) VALUES (null,"Clipperton",14);</v>
       </c>
     </row>
